--- a/Crosswalk_2012/Crosswalk_BioCriteria.xlsx
+++ b/Crosswalk_2012/Crosswalk_BioCriteria.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\2018IRFiles\2018_WQAssessment\Crosswalk_2012List\Final_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IR2018\Crosswalk_2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Crosswalk" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6184" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6184" uniqueCount="1103">
   <si>
     <t>RECORD_ID</t>
   </si>
@@ -3333,6 +3333,12 @@
   </si>
   <si>
     <t>OR_SR_1710030502_02_104967</t>
+  </si>
+  <si>
+    <t>OR_WS_170900120201_02_104554.1</t>
+  </si>
+  <si>
+    <t>OR_WS_170900120201_02_104554.2</t>
   </si>
 </sst>
 </file>
@@ -3698,9 +3704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H745"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9794,7 +9800,7 @@
         <v>271</v>
       </c>
       <c r="D315" t="s">
-        <v>128</v>
+        <v>1101</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>9</v>
@@ -13949,7 +13955,7 @@
         <v>271</v>
       </c>
       <c r="D532" t="s">
-        <v>128</v>
+        <v>1102</v>
       </c>
       <c r="E532" s="1" t="s">
         <v>9</v>
@@ -18123,8 +18129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
